--- a/results/FrequencyTables/25752527_gLTR-T1.xlsx
+++ b/results/FrequencyTables/25752527_gLTR-T1.xlsx
@@ -465,73 +465,73 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.00151400454201363</v>
       </c>
       <c r="C2">
-        <v>0.98</v>
+        <v>0.965177895533687</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.00757002271006813</v>
       </c>
       <c r="E2">
-        <v>0.99</v>
+        <v>0.975018925056775</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.00227100681302044</v>
       </c>
       <c r="G2">
-        <v>0.01</v>
+        <v>0.0060560181680545</v>
       </c>
       <c r="H2">
-        <v>0.99</v>
+        <v>0.978046934140802</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.0060560181680545</v>
       </c>
       <c r="J2">
-        <v>0.99</v>
+        <v>0.98107494322483</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.00227100681302044</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.00227100681302044</v>
       </c>
       <c r="M2">
-        <v>0.03</v>
+        <v>0.0408781226343679</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.00454201362604088</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.999242997728993</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.00529901589704769</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.00151400454201363</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.00151400454201363</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.00151400454201363</v>
       </c>
       <c r="T2">
-        <v>0.01</v>
+        <v>0.0113550340651022</v>
       </c>
       <c r="U2">
-        <v>0.01</v>
+        <v>0.0060560181680545</v>
       </c>
       <c r="V2">
-        <v>0.01</v>
+        <v>0.0113550340651022</v>
       </c>
       <c r="W2">
-        <v>0.99</v>
+        <v>0.990915972747918</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.00302800908402725</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,73 +539,73 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.0174110522331567</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.00151400454201363</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.00227100681302044</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.0158970476911431</v>
       </c>
       <c r="F3">
-        <v>0.99</v>
+        <v>0.98107494322483</v>
       </c>
       <c r="G3">
-        <v>0.99</v>
+        <v>0.978803936411809</v>
       </c>
       <c r="H3">
-        <v>0.01</v>
+        <v>0.00681302043906132</v>
       </c>
       <c r="I3">
-        <v>0.01</v>
+        <v>0.00757002271006813</v>
       </c>
       <c r="J3">
-        <v>0.01</v>
+        <v>0.00454201362604088</v>
       </c>
       <c r="K3">
-        <v>0.01</v>
+        <v>0.00302800908402725</v>
       </c>
       <c r="L3">
-        <v>0.67</v>
+        <v>0.851627554882665</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.0522331566994701</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.000757002271006813</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.0189250567751703</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0.985616956850871</v>
       </c>
       <c r="R3">
-        <v>1</v>
+        <v>0.995457986373959</v>
       </c>
       <c r="S3">
-        <v>0.04</v>
+        <v>0.0507191521574565</v>
       </c>
       <c r="T3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.01</v>
+        <v>0.00378501135503407</v>
       </c>
       <c r="V3">
         <v>0</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.000757002271006813</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>0.000757002271006813</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -613,73 +613,73 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.01</v>
+        <v>0.0060560181680545</v>
       </c>
       <c r="C4">
-        <v>0.01</v>
+        <v>0.0287660862982589</v>
       </c>
       <c r="D4">
-        <v>0.99</v>
+        <v>0.973504920514762</v>
       </c>
       <c r="E4">
-        <v>0.01</v>
+        <v>0.00757002271006813</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0136260408781226</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.00151400454201363</v>
       </c>
       <c r="I4">
-        <v>0.99</v>
+        <v>0.969719909159728</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.0136260408781226</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.00151400454201363</v>
       </c>
       <c r="L4">
-        <v>0.01</v>
+        <v>0.0158970476911431</v>
       </c>
       <c r="M4">
-        <v>0.01</v>
+        <v>0.00378501135503407</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>0.993943981831946</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.000757002271006813</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.974261922785768</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.00151400454201363</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.000757002271006813</v>
       </c>
       <c r="T4">
-        <v>0.99</v>
+        <v>0.987130961392884</v>
       </c>
       <c r="U4">
-        <v>0.98</v>
+        <v>0.989401968205905</v>
       </c>
       <c r="V4">
-        <v>0.99</v>
+        <v>0.976532929598789</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>0.00454201362604088</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0.994700984102952</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,43 +687,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.99</v>
+        <v>0.975018925056775</v>
       </c>
       <c r="C5">
-        <v>0.01</v>
+        <v>0.00454201362604088</v>
       </c>
       <c r="D5">
-        <v>0.01</v>
+        <v>0.0166540499621499</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.00151400454201363</v>
       </c>
       <c r="F5">
-        <v>0.01</v>
+        <v>0.0166540499621499</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.00151400454201363</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0136260408781226</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.0166540499621499</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.000757002271006813</v>
       </c>
       <c r="K5">
-        <v>0.99</v>
+        <v>0.993186979560939</v>
       </c>
       <c r="L5">
-        <v>0.32</v>
+        <v>0.130204390613172</v>
       </c>
       <c r="M5">
-        <v>0.96</v>
+        <v>0.903103709311128</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.000757002271006813</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -732,28 +732,28 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.0128690386071158</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.00151400454201363</v>
       </c>
       <c r="S5">
-        <v>0.96</v>
+        <v>0.947009841029523</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>0.000757002271006813</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.012112036336109</v>
       </c>
       <c r="W5">
-        <v>0.01</v>
+        <v>0.00378501135503407</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.000757002271006813</v>
       </c>
     </row>
   </sheetData>
